--- a/要件定義書.xlsx
+++ b/要件定義書.xlsx
@@ -531,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,17 +866,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>除外範囲</t>
+          <t>対象機能</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>決済処理</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>テスト重点領域に集中するため</t>
+          <t>割引マスタ管理</t>
         </is>
       </c>
     </row>
@@ -888,12 +883,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>除外範囲</t>
+          <t>対象機能</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ソーシャル機能（フォロー・コメント）</t>
+          <t>ステージ/タイムテーブルボード管理</t>
         </is>
       </c>
     </row>
@@ -905,93 +900,68 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>除外範囲</t>
+          <t>対象機能</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>電子チケット配布</t>
+          <t>SNSリンク・メンバー管理</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4.機能要件</t>
+          <t>3.スコープ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>認証</t>
+          <t>除外範囲</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FR-01</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>メール+PWで登録・ログイン</t>
+          <t>決済処理</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>権限/UXテスト対象</t>
+          <t>テスト重点領域に集中するため</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4.機能要件</t>
+          <t>3.スコープ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>認証</t>
+          <t>除外範囲</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FR-02</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>入力制約（PW8文字以上）</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>境界値テスト対象</t>
+          <t>ソーシャル機能（フォロー・コメント）</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4.機能要件</t>
+          <t>3.スコープ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>イベント管理</t>
+          <t>除外範囲</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FR-03</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>イベント作成/更新/削除</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>CRUDテスト対象</t>
+          <t>電子チケット配布</t>
         </is>
       </c>
     </row>
@@ -1003,22 +973,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>イベント管理</t>
+          <t>認証</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FR-04</t>
+          <t>FR-01</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>イベント基本情報入力（名称・日付・会場等）</t>
+          <t>メール+PWで登録・ログイン</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>入力妥当性テスト</t>
+          <t>権限/UXテスト対象</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1000,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>イベント管理</t>
+          <t>認証</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FR-04a</t>
+          <t>FR-02</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>イベント料金を「イベント料」「ドリンク」の2項目で入力し合計を自動計算</t>
+          <t>入力制約（PW8文字以上）</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>料金構成</t>
+          <t>境界値テスト対象</t>
         </is>
       </c>
     </row>
@@ -1057,22 +1027,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>タイムテーブル</t>
+          <t>イベント管理</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FR-05</t>
+          <t>FR-03</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>スロット作成（開始・終了・ステージ）</t>
+          <t>イベント作成/更新/削除</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>時間境界値</t>
+          <t>CRUDテスト対象</t>
         </is>
       </c>
     </row>
@@ -1084,22 +1054,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>タイムテーブル</t>
+          <t>イベント管理</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FR-06</t>
+          <t>FR-04</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>競合検知（重複/逆転）</t>
+          <t>イベント基本情報入力（名称・日付・会場等）</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>組合せ/ロジック評価</t>
+          <t>入力妥当性テスト</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1081,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>アーティスト管理</t>
+          <t>イベント管理</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FR-07</t>
+          <t>FR-04a</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>アーティスト登録・閲覧</t>
+          <t>イベント料金を「イベント料」「ドリンク」の2項目で入力し合計を自動計算</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CRUD</t>
+          <t>料金構成</t>
         </is>
       </c>
     </row>
@@ -1138,22 +1108,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>アーティスト管理</t>
+          <t>タイムテーブル</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FR-08</t>
+          <t>FR-05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>タイムテーブル割当</t>
+          <t>スロット作成（開始・終了・ステージ）</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ルール整合性</t>
+          <t>時間境界値</t>
         </is>
       </c>
     </row>
@@ -1165,22 +1135,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>料金/割引</t>
+          <t>タイムテーブル</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FR-09</t>
+          <t>FR-06</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>基本料金設定（0–50,000円）</t>
+          <t>競合検知（重複/逆転）</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>範囲/境界値</t>
+          <t>組合せ/ロジック評価</t>
         </is>
       </c>
     </row>
@@ -1192,22 +1162,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>料金/割引</t>
+          <t>アーティスト管理</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FR-10</t>
+          <t>FR-07</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>割引設定（早割/学割/取置）</t>
+          <t>アーティスト登録・閲覧</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ディシジョンテーブル適用</t>
+          <t>CRUD</t>
         </is>
       </c>
     </row>
@@ -1219,22 +1189,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>料金/割引</t>
+          <t>アーティスト管理</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FR-11</t>
+          <t>FR-08</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>割引優先順明示</t>
+          <t>タイムテーブル割当</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>仕様の曖昧性排除</t>
+          <t>ルール整合性</t>
         </is>
       </c>
     </row>
@@ -1246,22 +1216,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CSV評価メモ</t>
+          <t>料金/割引</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FR-12</t>
+          <t>FR-09</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CSV取込</t>
+          <t>基本料金設定（0–50,000円）</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>外部データテスト</t>
+          <t>範囲/境界値</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1243,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CSV評価メモ</t>
+          <t>料金/割引</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FR-13</t>
+          <t>FR-10</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>不正ファイル警告</t>
+          <t>割引設定（早割/学割/取置）</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>異常系評価力</t>
+          <t>ディシジョンテーブル適用</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1270,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>料金/割引</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FR-14</t>
+          <t>FR-11</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>未ログイン利用者はイベント一覧/詳細の閲覧のみを許可</t>
+          <t>割引優先順明示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>公開範囲の明確化</t>
+          <t>仕様の曖昧性排除</t>
         </is>
       </c>
     </row>
@@ -1327,22 +1297,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>CSV評価メモ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FR-15</t>
+          <t>FR-12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ログイン利用者のみアーティスト編集・マスタ管理・評価メモ取込を許可</t>
+          <t>CSV取込</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>権限制御</t>
+          <t>外部データテスト</t>
         </is>
       </c>
     </row>
@@ -1354,22 +1324,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>アーティスト管理</t>
+          <t>CSV評価メモ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FR-16</t>
+          <t>FR-13</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>担当楽器を複数選択で登録（ラベル『担当楽器』）</t>
+          <t>不正ファイル警告</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>マスタ参照</t>
+          <t>異常系評価力</t>
         </is>
       </c>
     </row>
@@ -1381,22 +1351,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>アーティスト管理</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FR-17</t>
+          <t>FR-14</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>演奏の特徴を音楽ジャンルマスタから選択（ラベル『演奏スタイル』）</t>
+          <t>未ログイン利用者はイベント一覧/詳細の閲覧のみを許可</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>同値/選択肢</t>
+          <t>公開範囲の明確化</t>
         </is>
       </c>
     </row>
@@ -1408,22 +1378,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>アーティスト管理</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FR-18</t>
+          <t>FR-15</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>好きな楽曲ジャンルを複数選択＋任意入力（ラベル『好きな楽曲』）</t>
+          <t>ログイン利用者のみアーティスト編集・マスタ管理・評価メモ取込を許可</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>複合入力</t>
+          <t>権限制御</t>
         </is>
       </c>
     </row>
@@ -1435,22 +1405,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>マスタ管理</t>
+          <t>アーティスト管理</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FR-19</t>
+          <t>FR-16</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>楽器マスタの登録・更新・無効化</t>
+          <t>担当楽器を複数選択で登録（ラベル『担当楽器』）</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>運用メンテナンス</t>
+          <t>マスタ参照</t>
         </is>
       </c>
     </row>
@@ -1462,22 +1432,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>マスタ管理</t>
+          <t>アーティスト管理</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FR-20</t>
+          <t>FR-17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>音楽ジャンルマスタの登録・更新・有効/無効管理</t>
+          <t>演奏の特徴を音楽ジャンルマスタから選択（ラベル『演奏スタイル』）</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>運用メンテナンス</t>
+          <t>同値/選択肢</t>
         </is>
       </c>
     </row>
@@ -1489,22 +1459,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>多言語対応</t>
+          <t>アーティスト管理</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FR-21</t>
+          <t>FR-18</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>i18nでエラー/ダイアログ/共通文言を管理（共通と機能別ファイル分割）</t>
+          <t>好きな楽曲ジャンルを複数選択＋任意入力（ラベル『好きな楽曲』）</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>再利用性向上</t>
+          <t>複合入力</t>
         </is>
       </c>
     </row>
@@ -1516,22 +1486,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ナビゲーション</t>
+          <t>マスタ管理</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FR-22</t>
+          <t>FR-19</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>非ログイン時ヘッダーに「イベント一覧」「ログイン」のみ表示</t>
+          <t>楽器マスタの登録・更新・無効化</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UX</t>
+          <t>運用メンテナンス</t>
         </is>
       </c>
     </row>
@@ -1543,22 +1513,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ナビゲーション</t>
+          <t>マスタ管理</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FR-23</t>
+          <t>FR-20</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ログイン時ヘッダーは「イベント一覧」「アーティスト」「ユーザー名(押下でアカウント設定)」を表示</t>
+          <t>音楽ジャンルマスタの登録・更新・有効/無効管理</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UX</t>
+          <t>運用メンテナンス</t>
         </is>
       </c>
     </row>
@@ -1570,22 +1540,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>アカウント管理</t>
+          <t>多言語対応</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FR-24</t>
+          <t>FR-21</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>アカウント設定画面にログアウトボタンを配置</t>
+          <t>i18nでエラー/ダイアログ/共通文言を管理（共通と機能別ファイル分割）</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>導線</t>
+          <t>再利用性向上</t>
         </is>
       </c>
     </row>
@@ -1597,22 +1567,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>タイムテーブル</t>
+          <t>ナビゲーション</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FR-25</t>
+          <t>FR-22</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>タイムテーブル編集画面で既存枠を一覧表示し一括編集できるUIを提供</t>
+          <t>非ログイン時ヘッダーに「イベント一覧」「ログイン」のみ表示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>衝突回避</t>
+          <t>UX</t>
         </is>
       </c>
     </row>
@@ -1624,22 +1594,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>タイムテーブル</t>
+          <t>ナビゲーション</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FR-26</t>
+          <t>FR-23</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>一覧上で出演アーティスト・開始/終了時刻・ステージをインライン編集可能（プルダウン含む）</t>
+          <t>ログイン時ヘッダーは「イベント一覧」「アーティスト」「ユーザー名(押下でアカウント設定)」を表示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>入力効率</t>
+          <t>UX</t>
         </is>
       </c>
     </row>
@@ -1651,103 +1621,103 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>タイムテーブル</t>
+          <t>アカウント管理</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FR-27</t>
+          <t>FR-24</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ドラッグ&amp;ドロップで枠の並び順を変更すると時間が再計算される</t>
+          <t>アカウント設定画面にログアウトボタンを配置</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>入力手段</t>
+          <t>導線</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5.非機能要件</t>
+          <t>4.機能要件</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>非機能</t>
+          <t>タイムテーブル</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NFR-01</t>
+          <t>FR-25</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>API p95 &lt; 300ms</t>
+          <t>タイムテーブル編集画面で既存枠を一覧表示し一括編集できるUIを提供</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UX/性能テスト</t>
+          <t>衝突回避</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5.非機能要件</t>
+          <t>4.機能要件</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>非機能</t>
+          <t>タイムテーブル</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NFR-02</t>
+          <t>FR-26</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>JWT認証</t>
+          <t>一覧上で出演アーティスト・開始/終了時刻・ステージをインライン編集可能（プルダウン含む）</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>セキュリティ</t>
+          <t>入力効率</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5.非機能要件</t>
+          <t>4.機能要件</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>非機能</t>
+          <t>タイムテーブル</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NFR-03</t>
+          <t>FR-27</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CRUD操作ログ保存</t>
+          <t>ドラッグ&amp;ドロップで枠の並び順を変更すると時間が再計算される</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>再現性保証</t>
+          <t>入力手段</t>
         </is>
       </c>
     </row>
@@ -1764,17 +1734,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NFR-04</t>
+          <t>NFR-01</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CIで単体テスト自動化</t>
+          <t>API p95 &lt; 300ms</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>実務品質文化</t>
+          <t>UX/性能テスト</t>
         </is>
       </c>
     </row>
@@ -1786,103 +1756,103 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>多言語</t>
+          <t>非機能</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NFR-05</t>
+          <t>NFR-02</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>i18nファイルを共通メッセージ・機能別に分割し再利用する</t>
+          <t>JWT認証</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>保守性向上</t>
+          <t>セキュリティ</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6.テスト品質目標</t>
+          <t>5.非機能要件</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>品質指標</t>
+          <t>非機能</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>NFR-03</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>95%以上</t>
+          <t>CRUD操作ログ保存</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>実装漏れ防止</t>
+          <t>再現性保証</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6.テスト品質目標</t>
+          <t>5.非機能要件</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>品質指標</t>
+          <t>非機能</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>NFR-04</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>90%以上</t>
+          <t>CIで単体テスト自動化</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>条件分岐網羅</t>
+          <t>実務品質文化</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6.テスト品質目標</t>
+          <t>5.非機能要件</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>品質指標</t>
+          <t>多言語</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MC/DC</t>
+          <t>NFR-05</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>75%以上</t>
+          <t>i18nファイルを共通メッセージ・機能別に分割し再利用する</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>重要ロジック保証</t>
+          <t>保守性向上</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1869,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>バグ検出率</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1909,7 +1879,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>観点充実</t>
+          <t>実装漏れ防止</t>
         </is>
       </c>
     </row>
@@ -1926,83 +1896,98 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>手動E2E</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10ケース以上</t>
+          <t>90%以上</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UX/操作性担保</t>
+          <t>条件分岐網羅</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6.データ要件</t>
+          <t>6.テスト品質目標</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>イベント</t>
+          <t>品質指標</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>公開状態</t>
+          <t>MC/DC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>enum(draft/published)。公開時はタイムテーブルと出演者が1件以上必要。</t>
+          <t>75%以上</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>重要ロジック保証</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6.データ要件</t>
+          <t>6.テスト品質目標</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>イベント</t>
+          <t>品質指標</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>料金</t>
+          <t>バグ検出率</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>エントランス料は税込整数円、通貨はJPY固定。</t>
+          <t>95%以上</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>観点充実</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6.データ要件</t>
+          <t>6.テスト品質目標</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>イベント</t>
+          <t>品質指標</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>料金内訳</t>
+          <t>手動E2E</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>イベント料・ドリンク料をそれぞれ0〜50,000円、合計は自動算出。</t>
+          <t>10ケース以上</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>UX/操作性担保</t>
         </is>
       </c>
     </row>
@@ -2019,12 +2004,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>タイムテーブル表示</t>
+          <t>公開状態</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>開始時刻の昇順で表示。</t>
+          <t>enum(draft/published)。公開時はタイムテーブルと出演者が1件以上必要。</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2021,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>アーティスト</t>
+          <t>イベント</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>公開設定</t>
+          <t>料金</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>非公開設定時は一般一覧から除外し、イベント詳細では「非公開」表示。</t>
+          <t>エントランス料は税込整数円、通貨はJPY固定。</t>
         </is>
       </c>
     </row>
@@ -2058,17 +2043,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>アーティスト</t>
+          <t>イベント</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>担当楽器</t>
+          <t>料金内訳</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>楽器マスタから複数選択（最大5件）。表示順は選択順。</t>
+          <t>イベント料・ドリンク料をそれぞれ0〜50,000円、合計は自動算出。</t>
         </is>
       </c>
     </row>
@@ -2080,17 +2065,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>アーティスト</t>
+          <t>イベント</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>演奏の特徴</t>
+          <t>タイムテーブル表示</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>音楽ジャンルマスタから単一選択。未選択可。</t>
+          <t>開始時刻の昇順で表示。</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2092,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>好きな楽曲</t>
+          <t>公開設定</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>音楽ジャンル複数選択＋任意楽曲名（最大3件・各50字）。</t>
+          <t>非公開設定時は一般一覧から除外し、イベント詳細では「非公開」表示。</t>
         </is>
       </c>
     </row>
@@ -2124,17 +2109,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>マスタ</t>
+          <t>アーティスト</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>楽器マスタ</t>
+          <t>担当楽器</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>名称（必須）、表示順、使用可否フラグ。</t>
+          <t>楽器マスタから複数選択（最大5件）。表示順は選択順。</t>
         </is>
       </c>
     </row>
@@ -2146,17 +2131,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>マスタ</t>
+          <t>アーティスト</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>音楽ジャンルマスタ</t>
+          <t>演奏の特徴</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>名称（必須）、表示順、使用可否フラグ。</t>
+          <t>音楽ジャンルマスタから単一選択。未選択可。</t>
         </is>
       </c>
     </row>
@@ -2168,83 +2153,83 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>アクセス</t>
+          <t>アーティスト</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>権限制御</t>
+          <t>好きな楽曲</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>未ログイン=閲覧のみ／ログイン=編集・取込可。</t>
+          <t>音楽ジャンル複数選択＋任意楽曲名（最大3件・各50字）。</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7.仕様詳細</t>
+          <t>6.データ要件</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>入力制約</t>
+          <t>マスタ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>料金</t>
+          <t>楽器マスタ</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0–50,000円、整数</t>
+          <t>名称（必須）、表示順、使用可否フラグ。</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7.仕様詳細</t>
+          <t>6.データ要件</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>入力制約</t>
+          <t>マスタ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>料金内訳</t>
+          <t>音楽ジャンルマスタ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>イベント料/ドリンク料とも0〜50,000円、合計は100,000円以内</t>
+          <t>名称（必須）、表示順、使用可否フラグ。</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7.仕様詳細</t>
+          <t>6.データ要件</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>入力制約</t>
+          <t>アクセス</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>日付</t>
+          <t>権限制御</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ISO8601、過去可</t>
+          <t>未ログイン=閲覧のみ／ログイン=編集・取込可。</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2246,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>時間</t>
+          <t>料金</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>終了 &gt; 開始</t>
+          <t>0–50,000円、整数</t>
         </is>
       </c>
     </row>
@@ -2283,12 +2268,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>名称</t>
+          <t>料金内訳</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Not Empty, 1–100字</t>
+          <t>イベント料/ドリンク料とも0〜50,000円、合計は100,000円以内</t>
         </is>
       </c>
     </row>
@@ -2305,12 +2290,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>担当楽器</t>
+          <t>日付</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>マルチセレクト、最大5件、重複不可</t>
+          <t>ISO8601、過去可</t>
         </is>
       </c>
     </row>
@@ -2327,12 +2312,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>演奏の特徴</t>
+          <t>時間</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ジャンルマスタから1件、未選択可</t>
+          <t>終了 &gt; 開始</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2334,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>好きな楽曲</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ジャンル複数（最大3）＋任意テキスト50字以内</t>
+          <t>Not Empty, 1–100字</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2356,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>i18nファイル</t>
+          <t>担当楽器</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>共通(l10n/common.yml)と機能別(l10n/&lt;domain&gt;.yml)で管理</t>
+          <t>マルチセレクト、最大5件、重複不可</t>
         </is>
       </c>
     </row>
@@ -2388,98 +2373,83 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>境界値例</t>
+          <t>入力制約</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金額</t>
+          <t>演奏の特徴</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-1,0,1,49,999,50,000,50,001</t>
+          <t>ジャンルマスタから1件、未選択可</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8.テスト設計適用マップ</t>
+          <t>7.仕様詳細</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>技法</t>
+          <t>入力制約</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>同値クラス</t>
+          <t>好きな楽曲</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>対象: 料金/時間</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>成果物: 分類表</t>
+          <t>ジャンル複数（最大3）＋任意テキスト50字以内</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8.テスト設計適用マップ</t>
+          <t>7.仕様詳細</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>技法</t>
+          <t>入力制約</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>境界値</t>
+          <t>i18nファイル</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>対象: 料金/時間</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>成果物: 境界値リスト</t>
+          <t>共通(l10n/common.yml)と機能別(l10n/&lt;domain&gt;.yml)で管理</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8.テスト設計適用マップ</t>
+          <t>7.仕様詳細</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>技法</t>
+          <t>境界値例</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>デシジョンテーブル</t>
+          <t>金額</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>対象: 割引ロジック</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>成果物: 8ルール表</t>
+          <t>-1,0,1,49,999,50,000,50,001</t>
         </is>
       </c>
     </row>
@@ -2496,17 +2466,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>直交表/ペアワイズ</t>
+          <t>同値クラス</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>対象: タイムテーブル設定</t>
+          <t>対象: 料金/時間</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>成果物: 2-way組合せ</t>
+          <t>成果物: 分類表</t>
         </is>
       </c>
     </row>
@@ -2523,17 +2493,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C0/C1/MC/DC</t>
+          <t>境界値</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>対象: 料金/時間ロジック</t>
+          <t>対象: 料金/時間</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>成果物: カバレッジレポート</t>
+          <t>成果物: 境界値リスト</t>
         </is>
       </c>
     </row>
@@ -2550,17 +2520,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>状態遷移テスト</t>
+          <t>デシジョンテーブル</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>対象: アクセス制御（未ログイン/ログイン/ロール別）</t>
+          <t>対象: 割引ロジック</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>成果物: 状態遷移図・テストケース</t>
+          <t>成果物: 8ルール表</t>
         </is>
       </c>
     </row>
@@ -2577,17 +2547,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>組合せテスト</t>
+          <t>直交表/ペアワイズ</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>対象: 楽器/ジャンル選択と表示文言</t>
+          <t>対象: タイムテーブル設定</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>成果物: 3-way評価表</t>
+          <t>成果物: 2-way組合せ</t>
         </is>
       </c>
     </row>
@@ -2604,17 +2574,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>UI振る舞い</t>
+          <t>C0/C1/MC/DC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>対象: ヘッダー表示条件（未ログイン/ログイン）</t>
+          <t>対象: 料金/時間ロジック</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>成果物: 条件テスト表</t>
+          <t>成果物: カバレッジレポート</t>
         </is>
       </c>
     </row>
@@ -2631,88 +2601,98 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ペアワイズ</t>
+          <t>状態遷移テスト</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>対象: タイムテンプレート×手入力/プルダウン</t>
+          <t>対象: アクセス制御（未ログイン/ログイン/ロール別）</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>成果物: 組合せ表</t>
+          <t>成果物: 状態遷移図・テストケース</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>9.デシジョンテーブル</t>
+          <t>8.テスト設計適用マップ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>割引仕様</t>
+          <t>技法</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>条件</t>
+          <t>組合せテスト</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>C1=早割, C2=学生, C3=取置</t>
+          <t>対象: 楽器/ジャンル選択と表示文言</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>優先順:10%→500円→200円</t>
+          <t>成果物: 3-way評価表</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>9.デシジョンテーブル</t>
+          <t>8.テスト設計適用マップ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>割引仕様</t>
+          <t>技法</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>UI振る舞い</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>C1=N,C2=N,C3=N =&gt; 料金3000</t>
+          <t>対象: ヘッダー表示条件（未ログイン/ログイン）</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>成果物: 条件テスト表</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>9.デシジョンテーブル</t>
+          <t>8.テスト設計適用マップ</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>割引仕様</t>
+          <t>技法</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>ペアワイズ</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C1=Y,C2=N,C3=N =&gt; 料金2700</t>
+          <t>対象: タイムテンプレート×手入力/プルダウン</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>成果物: 組合せ表</t>
         </is>
       </c>
     </row>
@@ -2729,12 +2709,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>条件</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C1=N,C2=Y,C3=N =&gt; 料金2500</t>
+          <t>C1=早割, C2=学生, C3=取置</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>優先順:10%→500円→200円</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2736,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>C1=N,C2=N,C3=Y =&gt; 料金2800</t>
+          <t>C1=N,C2=N,C3=N =&gt; 料金3000</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2758,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>C1=Y,C2=Y,C3=N =&gt; 料金2250</t>
+          <t>C1=Y,C2=N,C3=N =&gt; 料金2700</t>
         </is>
       </c>
     </row>
@@ -2795,12 +2780,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>C1=Y,C2=N,C3=Y =&gt; 料金2520</t>
+          <t>C1=N,C2=Y,C3=N =&gt; 料金2500</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2802,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>R7</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C1=N,C2=Y,C3=Y =&gt; 料金2300</t>
+          <t>C1=N,C2=N,C3=Y =&gt; 料金2800</t>
         </is>
       </c>
     </row>
@@ -2839,83 +2824,78 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>R8</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C1=Y,C2=Y,C3=Y =&gt; 料金2070</t>
+          <t>C1=Y,C2=Y,C3=N =&gt; 料金2250</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>10.直交表</t>
+          <t>9.デシジョンテーブル</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>テスト要因</t>
+          <t>割引仕様</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ステージ数</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1/2/3</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>OAで≈10ケース</t>
+          <t>C1=Y,C2=N,C3=Y =&gt; 料金2520</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>10.直交表</t>
+          <t>9.デシジョンテーブル</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>テスト要因</t>
+          <t>割引仕様</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>スロット長</t>
+          <t>R7</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>20/30/45分</t>
+          <t>C1=N,C2=Y,C3=Y =&gt; 料金2300</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>10.直交表</t>
+          <t>9.デシジョンテーブル</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>テスト要因</t>
+          <t>割引仕様</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>出演数</t>
+          <t>R8</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3/6/9組</t>
+          <t>C1=Y,C2=Y,C3=Y =&gt; 料金2070</t>
         </is>
       </c>
     </row>
@@ -2932,78 +2912,83 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>重複許可</t>
+          <t>ステージ数</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Yes/No</t>
+          <t>1/2/3</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>OAで≈10ケース</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>11.成果物</t>
+          <t>10.直交表</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>成果物</t>
+          <t>テスト要因</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>要件定義書</t>
+          <t>スロット長</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>本書</t>
+          <t>20/30/45分</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>11.成果物</t>
+          <t>10.直交表</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>成果物</t>
+          <t>テスト要因</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>テスト戦略</t>
+          <t>出演数</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>方針/範囲/指標</t>
+          <t>3/6/9組</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>11.成果物</t>
+          <t>10.直交表</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>成果物</t>
+          <t>テスト要因</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>テスト計画</t>
+          <t>重複許可</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>進行管理</t>
+          <t>Yes/No</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3005,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>デシジョンテーブル</t>
+          <t>要件定義書</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>割引ロジック</t>
+          <t>本書</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3027,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>直交表</t>
+          <t>テスト戦略</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>タイムテーブル設定</t>
+          <t>方針/範囲/指標</t>
         </is>
       </c>
     </row>
@@ -3064,12 +3049,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>境界値表</t>
+          <t>テスト計画</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>時間/料金</t>
+          <t>進行管理</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3071,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>テストケース仕様書</t>
+          <t>デシジョンテーブル</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>10シナリオ以上</t>
+          <t>割引ロジック</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3093,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>カバレッジレポート</t>
+          <t>直交表</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>C0/C1/MC/DC</t>
+          <t>タイムテーブル設定</t>
         </is>
       </c>
     </row>
@@ -3130,12 +3115,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>バグ票</t>
+          <t>境界値表</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>JIRA形式</t>
+          <t>時間/料金</t>
         </is>
       </c>
     </row>
@@ -3152,93 +3137,78 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>i18n文言一覧</t>
+          <t>テストケース仕様書</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>共通/機能別YAML・翻訳差異表</t>
+          <t>10シナリオ以上</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>12.技術スタック</t>
+          <t>11.成果物</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>技術</t>
+          <t>成果物</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Frontend</t>
+          <t>カバレッジレポート</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Nuxt/Vue または React</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>予定</t>
+          <t>C0/C1/MC/DC</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>12.技術スタック</t>
+          <t>11.成果物</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>技術</t>
+          <t>成果物</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Backend</t>
+          <t>バグ票</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Go または TypeScript</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>予定</t>
+          <t>JIRA形式</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>12.技術スタック</t>
+          <t>11.成果物</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>技術</t>
+          <t>成果物</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>i18n文言一覧</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Firestore / PostgreSQL</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>予定</t>
+          <t>共通/機能別YAML・翻訳差異表</t>
         </is>
       </c>
     </row>
@@ -3255,12 +3225,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>Frontend</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>GitHub Actions / GitLab CI</t>
+          <t>Nuxt/Vue または React</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3282,12 +3252,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Backend</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Jest / Go test / Cypress</t>
+          <t>Go または TypeScript</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3299,66 +3269,81 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>13.リスクと対策</t>
+          <t>12.技術スタック</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>リスク</t>
+          <t>技術</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>仕様曖昧</t>
+          <t>DB</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ディシジョンテーブルで明確化</t>
+          <t>Firestore / PostgreSQL</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>予定</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>13.リスクと対策</t>
+          <t>12.技術スタック</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>リスク</t>
+          <t>技術</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>組合せ爆発</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>直交表で縮約</t>
+          <t>GitHub Actions / GitLab CI</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>予定</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>13.リスクと対策</t>
+          <t>12.技術スタック</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>リスク</t>
+          <t>技術</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>観点漏れ</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>境界値+同値で補完</t>
+          <t>Jest / Go test / Cypress</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>予定</t>
         </is>
       </c>
     </row>
@@ -3375,129 +3360,129 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>文言差異</t>
+          <t>仕様曖昧</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>i18n共通ファイルで統制・Lint導入</t>
+          <t>ディシジョンテーブルで明確化</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>14.まとめ</t>
+          <t>13.リスクと対策</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>総括</t>
+          <t>リスク</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>目的</t>
+          <t>組合せ爆発</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>開発力ではなくテスト設計力を証明するプロダクト</t>
+          <t>直交表で縮約</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>14.まとめ</t>
+          <t>13.リスクと対策</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>総括</t>
+          <t>リスク</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>重点</t>
+          <t>観点漏れ</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ビジネスルール整理/組合せ効率化/境界・同値/カバレッジ管理/異常系・外部データ/i18n文言統制</t>
+          <t>境界値+同値で補完</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4.機能要件</t>
+          <t>13.リスクと対策</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>タイムテーブル</t>
+          <t>リスク</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>FR-28</t>
+          <t>文言差異</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>20/30/45/60/90分など複数テンプレートから均等に時間配分できる機能を提供</t>
+          <t>i18n共通ファイルで統制・Lint導入</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4.機能要件</t>
+          <t>14.まとめ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>タイムテーブル</t>
+          <t>総括</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>FR-29</t>
+          <t>目的</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>転換時間（休憩枠）を挿入・編集できるようにする</t>
+          <t>開発力ではなくテスト設計力を証明するプロダクト</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6.データ要件</t>
+          <t>14.まとめ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>タイムテーブル</t>
+          <t>総括</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>テンプレート</t>
+          <t>重点</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>20/30/45/60/90分のプリセット値を保持し、適用時に均等時間を算出。</t>
+          <t>ビジネスルール整理/組合せ効率化/境界・同値/カバレッジ管理/異常系・外部データ/i18n文言統制</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6.データ要件</t>
+          <t>4.機能要件</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3507,56 +3492,411 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>転換枠</t>
+          <t>FR-28</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>転換時間はartist_id無しの休憩枠として保持し、所要時間を分単位で管理。</t>
+          <t>テンプレート入力で5分刻みの任意分数を設定し、ステージの開始/終了時刻から均等配分できるUIを提供</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>7.仕様詳細</t>
+          <t>4.機能要件</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>入力制約</t>
+          <t>タイムテーブル</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>時間テンプレート</t>
+          <t>FR-29</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>テンプレートは20/30/45/60/90分。適用時に開始時刻から自動計算。</t>
+          <t>転換時間（休憩枠）を挿入・編集できるようにする</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>6.データ要件</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>タイムテーブル</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>テンプレート</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>ステージ開始/終了時刻を基準に、5分刻みの任意分数テンプレートから均等配分を算出する</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>6.データ要件</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>タイムテーブル</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>転換枠</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>転換時間はartist_id無しの休憩枠として保持し、所要時間を分単位で管理。</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>7.仕様詳細</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>入力制約</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>時間テンプレート</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>テンプレートは5分刻みの任意分数を設定でき、ステージの開始/終了時刻から均等配分を自動計算する</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7.仕様詳細</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>入力制約</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>転換枠</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>転換枠はアーティスト未選択で登録し、ステージ名やメモを任意入力可能。</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>4.機能要件</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>タイムテーブル</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>FR-30</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>複数ステージ（イベントタイムテーブル）を追加・削除し、ステージ単位で枠を管理できる</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>複数会場・フロア対応</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4.機能要件</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>料金/割引</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>FR-31</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>割引マスタを作成・編集・削除できる管理画面を提供する</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>割引ロジックの再利用</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4.機能要件</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>料金/割引</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>FR-32</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>イベント詳細画面で複数の割引をチェック選択し、適用金額を即時反映できる</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>複合割引検証</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>4.機能要件</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>アーティスト管理</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>FR-33</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>アーティストごとにSNSリンクを複数登録・並び替え・削除できる</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>外部導線管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>4.機能要件</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>アーティスト管理</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>FR-34</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>バンド/ユニットの場合にメンバー名・担当楽器・役割を複数登録して表示できる</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>編成共有</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>6.データ要件</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>タイムテーブル</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ステージ</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>event_timetablesにstage_name・positionを保持し、枠はevent_timetable_idで紐付ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>6.データ要件</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>料金/割引</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>割引マスタ</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>名称・種別（percentage/fixed）・値・優先度・説明を管理し、優先度昇順で適用する</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>6.データ要件</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>料金/割引</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>イベント割引</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>event_discountsでイベントと割引の多対多を管理（重複禁止）</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>6.データ要件</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>アーティスト</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SNSリンク</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>label・url・positionを保持し、URLはhttps/httpのみ許可</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>6.データ要件</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>アーティスト</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>メンバー</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>name・instrument・role・positionを保持し、空行は保存しない</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7.仕様詳細</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>入力制約</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SNSリンク</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>URLはhttp/httpsのみに限定し255文字以内。未入力行は削除対象。</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7.仕様詳細</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>入力制約</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>メンバー情報</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>バンド/ユニット選択時のみ必須。名前1〜100文字、役割/楽器各100文字以内。</t>
         </is>
       </c>
     </row>

--- a/要件定義書.xlsx
+++ b/要件定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="概要" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="要件定義" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="概要" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="要件定義" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45,15 +45,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -354,11 +422,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14"/>
-    <col customWidth="1" max="2" min="2" width="6"/>
-    <col customWidth="1" max="3" min="3" width="57"/>
-    <col customWidth="1" max="4" min="4" width="32"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="57" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -521,7 +589,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -531,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,11 +607,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14"/>
-    <col customWidth="1" max="2" min="2" width="10"/>
-    <col customWidth="1" max="3" min="3" width="57"/>
-    <col customWidth="1" max="4" min="4" width="51"/>
-    <col customWidth="1" max="5" min="5" width="19"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="57" customWidth="1" min="3" max="3"/>
+    <col width="51" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2075,7 +2143,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>開始時刻の昇順で表示。</t>
+          <t>5分刻みの時間軸+CSS Gridで開始/終了を可視化し、Interval Partitioningで列を割当てて重なりなく表示する</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3968,132 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4.機能要件</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>タイムテーブル</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>FR-35</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>イベント詳細のタイムテーブルをCSS Gridベースのタイムチャートで表示し、5分刻みの時間軸と列分割で枠の重なりを解消する</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>UI/アクセシビリティ確保</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4.機能要件</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>タイムテーブル</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>FR-36</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>タイムテーブル上のアーティスト名を押下するとモーダルでプロフィール/SNS/メンバー/編集導線を表示する</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>ダイアログ: role="dialog"+ESC閉じ対応</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>4.機能要件</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>タイムテーブル</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>FR-37</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>各枠の備考を折り畳み式カードで表示し、クリックで全文をモーダル/アコーディオン表示できる</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>情報量増への対応</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>6.データ要件</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>タイムテーブル枠</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>noteは最大1,000文字。入力時は空文字で保持し、表示時は要約+展開で扱う。</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>6.データ要件</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>タイムテーブル枠</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>枠種別</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>slot_kind は performance/changeover/other。changeover時はアーティスト入力を非表示にし背景色を区別する。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>